--- a/Inputs/Ison_Secure/addons.xlsx
+++ b/Inputs/Ison_Secure/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dental" sheetId="1" state="visible" r:id="rId2"/>
@@ -119,10 +119,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="7.5"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +213,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
@@ -264,7 +265,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -274,8 +275,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>378.18</v>
+      <c r="H2" s="5" t="n">
+        <v>417.518248175182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,7 +293,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -302,8 +303,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>185.45</v>
+      <c r="H3" s="5" t="n">
+        <v>204.744525547445</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,7 +321,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -330,14 +331,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>120</v>
+      <c r="H4" s="5" t="n">
+        <v>132.481751824818</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -352,11 +353,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
@@ -415,8 +416,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>130.91</v>
+      <c r="H2" s="5" t="n">
+        <v>144.525547445255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,14 +444,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>63.64</v>
+      <c r="H3" s="5" t="n">
+        <v>70.2627737226277</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -465,11 +466,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
@@ -493,7 +494,7 @@
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="4" t="n">
@@ -508,7 +509,7 @@
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="4" t="n">
@@ -523,7 +524,7 @@
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="n">
@@ -537,7 +538,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Ison_Secure/addons.xlsx
+++ b/Inputs/Ison_Secure/addons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -51,31 +51,78 @@
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
+    <t xml:space="preserve">Module 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 2,000 with 20% co-pay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Classic Silver/Classic Gold/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Classic Bronze/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Enhanced Classic Silver/Enhanced Classic Gold</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">inside options arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 1,500 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 1,000 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 500 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 500 with 10% co-pay(9 months wait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 250 with 10% co-pay(9 months wait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 150 with 10% co-pay(9 months wait)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dental Addon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 2,000 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic Silver/Classic Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inside options arr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 1,000 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 500 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical Addon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 250 with 10% co-pay(9 months wait)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 150 with 10% co-pay(9 months wait)</t>
   </si>
   <si>
     <t xml:space="preserve">9 months wait</t>
@@ -85,11 +132,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;$ &quot;0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +167,37 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -126,15 +205,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -142,6 +227,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -168,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,7 +281,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,6 +302,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE2EFDA"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -210,18 +370,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="67.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.51"/>
   </cols>
   <sheetData>
@@ -276,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>417.518248175182</v>
+        <v>521.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,10 +444,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -304,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>204.744525547445</v>
+        <v>421.53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,10 +472,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -332,7 +492,35 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>132.481751824818</v>
+        <v>255.93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>165.61</v>
       </c>
     </row>
   </sheetData>
@@ -351,18 +539,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="75.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.56"/>
   </cols>
   <sheetData>
@@ -396,11 +584,11 @@
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -416,19 +604,19 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>144.525547445255</v>
+      <c r="H2" s="7" t="n">
+        <v>361.31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -444,8 +632,36 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>70.2627737226277</v>
+      <c r="H3" s="7" t="n">
+        <v>180.66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>87.82</v>
       </c>
     </row>
   </sheetData>
@@ -464,13 +680,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
@@ -492,10 +708,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -507,10 +723,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -522,16 +738,31 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
